--- a/Docs/03_詳細設計/0301_画面レイアウト/画面レイアウト（ファイル出力画面）.xlsx
+++ b/Docs/03_詳細設計/0301_画面レイアウト/画面レイアウト（ファイル出力画面）.xlsx
@@ -11,15 +11,12 @@
     <sheet name="ファイル出力" sheetId="2" r:id="rId2"/>
     <sheet name="リスト" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -201,43 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「年」、「月」、「週」、「日」</t>
-  </si>
-  <si>
-    <t>期間１</t>
-    <rPh sb="0" eb="2">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>期間１単位</t>
-    <rPh sb="0" eb="2">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>期間２</t>
-    <rPh sb="0" eb="2">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>期間２単位</t>
-    <rPh sb="0" eb="2">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「端末内」、・・・</t>
     <rPh sb="1" eb="3">
       <t>タンマツ</t>
@@ -404,6 +364,129 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間１－１</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間１－１単位</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間１－２</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間１－２単位</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間１－３</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間１－３単位</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間２－１</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間２－１単位</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間２－２単位</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間２－３</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間２－３単位</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間２－２</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年</t>
+    <rPh sb="0" eb="1">
+      <t>ネン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -761,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -799,6 +882,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,11 +917,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -835,16 +926,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -883,7 +969,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ファイル出力!$D$1:$P$25" spid="_x0000_s1071"/>
+                  <a14:cameraTool cellRange="ファイル出力!$D$1:$P$25" spid="_x0000_s1073"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1020,23 +1106,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="画面レイアウト（お小遣い情報一覧画面）"/>
-      <sheetName val="お小遣い情報一覧"/>
-      <sheetName val="リスト"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1326,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1344,20 +1413,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1365,14 +1434,14 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1905,21 +1974,21 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="38" t="str">
+      <c r="E40" s="44" t="str">
         <f t="shared" ref="E40" si="0">$E$1</f>
         <v>ファイル出力</v>
       </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="40"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1927,14 +1996,14 @@
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
@@ -1976,7 +2045,7 @@
     <row r="44" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>3</v>
@@ -1986,16 +2055,16 @@
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J44" s="20" t="s">
         <v>6</v>
@@ -2012,19 +2081,19 @@
       <c r="C45" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="42"/>
+      <c r="D45" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="35"/>
       <c r="F45" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G45" s="22" t="s">
         <v>11</v>
       </c>
       <c r="H45" s="26"/>
-      <c r="I45" s="45" t="s">
-        <v>69</v>
+      <c r="I45" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
@@ -2039,19 +2108,19 @@
       <c r="C46" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="44"/>
+      <c r="D46" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="33"/>
       <c r="F46" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="24"/>
-      <c r="I46" s="46" t="s">
-        <v>69</v>
+      <c r="I46" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
@@ -2066,19 +2135,19 @@
       <c r="C47" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="44"/>
+      <c r="D47" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="33"/>
       <c r="F47" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>11</v>
       </c>
       <c r="H47" s="24"/>
-      <c r="I47" s="46" t="s">
-        <v>69</v>
+      <c r="I47" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
@@ -2093,19 +2162,19 @@
       <c r="C48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="44"/>
+      <c r="D48" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="33"/>
       <c r="F48" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>18</v>
       </c>
       <c r="H48" s="24"/>
-      <c r="I48" s="46" t="s">
-        <v>69</v>
+      <c r="I48" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J48" s="16" t="s">
         <v>27</v>
@@ -2122,19 +2191,19 @@
       <c r="C49" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="44"/>
+      <c r="D49" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="33"/>
       <c r="F49" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>11</v>
       </c>
       <c r="H49" s="24"/>
-      <c r="I49" s="46" t="s">
-        <v>69</v>
+      <c r="I49" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
@@ -2143,25 +2212,25 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
-      <c r="B50" s="15">
+      <c r="B50" s="17">
         <v>6</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="44"/>
+        <v>67</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="33"/>
       <c r="F50" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>18</v>
       </c>
       <c r="H50" s="24"/>
-      <c r="I50" s="46" t="s">
-        <v>69</v>
+      <c r="I50" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
@@ -2170,28 +2239,28 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
-      <c r="B51" s="15">
+      <c r="B51" s="27">
         <v>7</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="44"/>
+        <v>68</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="33"/>
       <c r="F51" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>11</v>
       </c>
       <c r="H51" s="24"/>
-      <c r="I51" s="46" t="s">
-        <v>69</v>
+      <c r="I51" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="K51" s="16"/>
       <c r="L51" s="14"/>
@@ -2199,29 +2268,29 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
-      <c r="B52" s="15">
+      <c r="B52" s="27">
         <v>8</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="44"/>
+        <v>69</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="33"/>
       <c r="F52" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="46" t="s">
-        <v>69</v>
+      <c r="H52" s="27"/>
+      <c r="I52" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
-      <c r="L52" s="14"/>
+      <c r="L52" s="29"/>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
@@ -2230,27 +2299,27 @@
         <v>9</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="44"/>
+        <v>70</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="33"/>
       <c r="F53" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="46" t="s">
-        <v>69</v>
+      <c r="H53" s="27"/>
+      <c r="I53" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="K53" s="16"/>
-      <c r="L53" s="14"/>
+      <c r="L53" s="29"/>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
@@ -2259,77 +2328,77 @@
         <v>10</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="44"/>
+        <v>71</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="33"/>
       <c r="F54" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="46" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
-      <c r="L54" s="14"/>
+      <c r="L54" s="29"/>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
-      <c r="B55" s="15">
+      <c r="B55" s="17">
         <v>11</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="44"/>
+        <v>72</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="33"/>
       <c r="F55" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="24"/>
-      <c r="I55" s="46" t="s">
-        <v>69</v>
+        <v>11</v>
+      </c>
+      <c r="H55" s="27"/>
+      <c r="I55" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="K55" s="16"/>
-      <c r="L55" s="14"/>
+      <c r="L55" s="29"/>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="5"/>
-      <c r="B56" s="15">
+      <c r="B56" s="27">
         <v>12</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" s="44"/>
+        <v>73</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="33"/>
       <c r="F56" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H56" s="24"/>
-      <c r="I56" s="46" t="s">
-        <v>69</v>
+      <c r="I56" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
@@ -2338,28 +2407,28 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
-      <c r="B57" s="15">
+      <c r="B57" s="27">
         <v>13</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="44"/>
+        <v>74</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="33"/>
       <c r="F57" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H57" s="24"/>
-      <c r="I57" s="46" t="s">
-        <v>69</v>
+      <c r="I57" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="K57" s="16"/>
       <c r="L57" s="14"/>
@@ -2371,145 +2440,249 @@
         <v>14</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="44"/>
+        <v>78</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="33"/>
       <c r="F58" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="24"/>
-      <c r="I58" s="46" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="H58" s="27"/>
+      <c r="I58" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
-      <c r="L58" s="14"/>
+      <c r="L58" s="29"/>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
+      <c r="B59" s="15">
+        <v>15</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="27"/>
+      <c r="I59" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K59" s="16"/>
+      <c r="L59" s="29"/>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
+      <c r="B60" s="17">
+        <v>16</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="33"/>
+      <c r="F60" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="27"/>
+      <c r="I60" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="29"/>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
+      <c r="B61" s="27">
+        <v>17</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="33"/>
+      <c r="F61" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="27"/>
+      <c r="I61" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K61" s="16"/>
+      <c r="L61" s="29"/>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
+      <c r="B62" s="17">
+        <v>18</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="33"/>
+      <c r="F62" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="24"/>
+      <c r="I62" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="14"/>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
+      <c r="B63" s="27">
+        <v>19</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="24"/>
+      <c r="I63" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="16"/>
+      <c r="L63" s="14"/>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
+      <c r="B64" s="27">
+        <v>20</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="33"/>
+      <c r="F64" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="24"/>
+      <c r="I64" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="14"/>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
+      <c r="B65" s="15">
+        <v>21</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="33"/>
+      <c r="F65" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="24"/>
+      <c r="I65" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="16"/>
+      <c r="L65" s="14"/>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
+      <c r="B66" s="15">
+        <v>22</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="33"/>
+      <c r="F66" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="24"/>
+      <c r="I66" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="14"/>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
@@ -2677,43 +2850,171 @@
       <c r="L77" s="3"/>
       <c r="M77" s="4"/>
     </row>
-    <row r="78" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="8"/>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A78" s="5"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A79" s="5"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A80" s="5"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A81" s="5"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A82" s="5"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A83" s="5"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84" s="5"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A85" s="5"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
+  <mergeCells count="28">
+    <mergeCell ref="D61:E61"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A40:C41"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="E41:H41"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2727,13 +3028,13 @@
           <x14:formula1>
             <xm:f>リスト!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G45:G58</xm:sqref>
+          <xm:sqref>G45:G66</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>リスト!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H45:H58</xm:sqref>
+          <xm:sqref>H45:H66</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2745,7 +3046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2758,54 +3061,65 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="9" spans="5:15" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="35" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="35"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="35" t="s">
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="35"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="28"/>
+      <c r="O11" s="49" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="5:15" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="5:15" x14ac:dyDescent="0.15">
       <c r="K14" s="11"/>
@@ -2818,24 +3132,22 @@
       <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="N9:O9"/>
+  <mergeCells count="5">
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="H15:O15"/>
     <mergeCell ref="H13:O13"/>
     <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="J11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2859,68 +3171,68 @@
         <v>5</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
